--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1060.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1060.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>3.35133007847301</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1060.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1060.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>1.045915126800537</v>
+      </c>
+      <c r="B1">
         <v>15</v>
       </c>
-      <c r="B1">
-        <v>3.35133007847301</v>
-      </c>
       <c r="C1">
-        <v>1.935581928863564</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.574151595967269</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.470001661365313</v>
+        <v>1.009738087654114</v>
       </c>
     </row>
   </sheetData>
